--- a/Team-Responsibility/cnl-team-v1.0.xlsx
+++ b/Team-Responsibility/cnl-team-v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cloudnloud\github\teams\Team-Responsibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Index" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>Angai</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>yes.She need to first finish couple of live streaming</t>
+  </si>
+  <si>
+    <t>Karthik Ganesan</t>
+  </si>
+  <si>
+    <t>Sathiyasheelan T</t>
   </si>
 </sst>
 </file>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,69 +848,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="1" t="s">
-        <v>49</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -922,15 +892,15 @@
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -939,24 +909,24 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -965,10 +935,10 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -979,10 +949,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -991,24 +961,24 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1017,24 +987,24 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1043,10 +1013,10 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>74</v>
@@ -1057,10 +1027,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1069,13 +1039,13 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
         <v>84</v>
@@ -1083,10 +1053,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1095,13 +1065,13 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
         <v>84</v>
@@ -1109,10 +1079,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1121,24 +1091,24 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1147,13 +1117,13 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
         <v>84</v>
@@ -1161,10 +1131,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1173,24 +1143,24 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1199,24 +1169,24 @@
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1231,18 +1201,18 @@
         <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1251,24 +1221,24 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1277,24 +1247,24 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1303,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
         <v>74</v>
@@ -1317,47 +1287,68 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B29" s="1" t="s">
-        <v>50</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>52</v>
@@ -1372,44 +1363,23 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>42</v>
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B31" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
         <v>52</v>
@@ -1418,27 +1388,27 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -1452,25 +1422,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
@@ -1478,10 +1448,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1490,24 +1460,24 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1516,81 +1486,87 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
         <v>54</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B37" s="1" t="s">
-        <v>48</v>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s">
-        <v>42</v>
+    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
         <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>75</v>
@@ -1601,16 +1577,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -1622,8 +1598,54 @@
         <v>42</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F41"/>
+  <autoFilter ref="A1:F43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Team-Responsibility/cnl-team-v1.0.xlsx
+++ b/Team-Responsibility/cnl-team-v1.0.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Index" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>Angai</t>
   </si>
   <si>
-    <t>Vishalakshi</t>
-  </si>
-  <si>
     <t>Arshiya khannum</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>Akhil Dsouza</t>
   </si>
   <si>
-    <t>Sreedevi Valeti</t>
-  </si>
-  <si>
-    <t>Muthuraj Anbalagan</t>
-  </si>
-  <si>
     <t>Shubha</t>
   </si>
   <si>
@@ -123,12 +114,6 @@
     <t>Padmini Tadikonda</t>
   </si>
   <si>
-    <t>Soujanya G</t>
-  </si>
-  <si>
-    <t>Mounika</t>
-  </si>
-  <si>
     <t>𝐒𝐭𝐚𝐠𝐞 𝟑 - 𝐂𝐨𝐮𝐫𝐬𝐞 𝐂𝐫𝐞𝐚𝐭𝐢𝐨𝐧,𝐁𝐨𝐨𝐤𝐬 𝐖𝐫𝐢𝐭𝐢𝐧𝐠,𝐒𝐨𝐥𝐮𝐭𝐢𝐨𝐧𝐬,𝐂𝐨𝐧𝐬𝐮𝐥𝐭𝐢𝐧𝐠</t>
   </si>
   <si>
@@ -162,18 +147,9 @@
     <t xml:space="preserve">Not seen </t>
   </si>
   <si>
-    <t>Yes.Not able to participate</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>She is very Silent</t>
-  </si>
-  <si>
-    <t>Don’t know</t>
-  </si>
-  <si>
     <t>Stage 3</t>
   </si>
   <si>
@@ -258,12 +234,6 @@
     <t xml:space="preserve">Revenue generation </t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Blog,Linkedin Post,Stories</t>
-  </si>
-  <si>
     <t>Blog,Live Streaming,Linkedin Post,Connecting Top Leaders,Stories</t>
   </si>
   <si>
@@ -273,9 +243,6 @@
     <t>Blog,Linkedin Post,Live Streaming</t>
   </si>
   <si>
-    <t>Blog,Linkedin Post,Live Streaming,Stories</t>
-  </si>
-  <si>
     <t>Speak to Him</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>yes.She need to first finish couple of live streaming</t>
   </si>
   <si>
     <t>Karthik Ganesan</t>
@@ -624,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,28 +606,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -677,24 +641,24 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -703,24 +667,24 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -729,24 +693,24 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -755,24 +719,24 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -781,97 +745,97 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -880,24 +844,24 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -906,24 +870,24 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -932,24 +896,24 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -958,24 +922,24 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -984,24 +948,24 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1010,24 +974,24 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1036,24 +1000,24 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1062,24 +1026,24 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1088,24 +1052,24 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1114,24 +1078,24 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1140,24 +1104,24 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1166,24 +1130,24 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1192,24 +1156,24 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1218,24 +1182,24 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
         <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1244,133 +1208,133 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B28" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -1379,24 +1343,24 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -1405,247 +1369,117 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
         <v>54</v>
       </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
         <v>54</v>
       </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F43"/>
+  <autoFilter ref="A1:F38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1663,22 +1497,22 @@
   <sheetData>
     <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
